--- a/Feature_Engineering/Missing_Value/Saless.xlsx
+++ b/Feature_Engineering/Missing_Value/Saless.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atul8\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\E\Github\Data_Files\Feature_Engineering\Missing_Value\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77CE6236-C073-44C0-BE37-BA39DEE50232}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FC93402-EE81-4D63-8435-27B215012FBA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,9 +30,6 @@
     <t>Day_Temp</t>
   </si>
   <si>
-    <t xml:space="preserve">No_of_Customers </t>
-  </si>
-  <si>
     <t>Sales</t>
   </si>
   <si>
@@ -43,6 +40,9 @@
   </si>
   <si>
     <t>City_Type</t>
+  </si>
+  <si>
+    <t>No_of_Customers</t>
   </si>
 </sst>
 </file>
@@ -412,33 +412,34 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="9.36328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.36328125" customWidth="1"/>
+    <col min="5" max="5" width="20.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="26" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">

--- a/Feature_Engineering/Missing_Value/Saless.xlsx
+++ b/Feature_Engineering/Missing_Value/Saless.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\E\Github\Data_Files\Feature_Engineering\Missing_Value\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FC93402-EE81-4D63-8435-27B215012FBA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EBA4295-B0CE-4DDE-89E8-9DE2B69756CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
   <si>
     <t>Day_Temp</t>
   </si>
@@ -43,6 +43,18 @@
   </si>
   <si>
     <t>No_of_Customers</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Product_Quality</t>
   </si>
 </sst>
 </file>
@@ -119,7 +131,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -129,6 +141,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="15" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -409,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -420,9 +433,10 @@
     <col min="2" max="2" width="9.36328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.36328125" customWidth="1"/>
     <col min="5" max="5" width="20.54296875" customWidth="1"/>
+    <col min="7" max="7" width="13.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="26" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="26" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -441,8 +455,11 @@
       <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
         <v>44105</v>
       </c>
@@ -461,8 +478,11 @@
       <c r="F2" s="3">
         <v>3112</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G2" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
         <v>44106</v>
       </c>
@@ -481,8 +501,11 @@
       <c r="F3" s="3">
         <v>3682</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G3" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
         <v>44107</v>
       </c>
@@ -499,8 +522,11 @@
       <c r="F4" s="3">
         <v>2774</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G4" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
         <v>44108</v>
       </c>
@@ -519,8 +545,9 @@
       <c r="F5" s="3">
         <v>3182</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
         <v>44109</v>
       </c>
@@ -539,8 +566,11 @@
       <c r="F6" s="3">
         <v>1368</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G6" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
         <v>44111</v>
       </c>
@@ -553,8 +583,11 @@
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G7" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
         <v>44159</v>
       </c>
@@ -573,8 +606,11 @@
       <c r="F8" s="3">
         <v>4232</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G8" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
         <v>44160</v>
       </c>
@@ -589,8 +625,9 @@
         <v>96</v>
       </c>
       <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
         <v>44161</v>
       </c>
@@ -609,8 +646,11 @@
       <c r="F10" s="3">
         <v>2356</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G10" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
         <v>44163</v>
       </c>
@@ -623,8 +663,11 @@
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G11" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
         <v>44164</v>
       </c>
@@ -643,8 +686,11 @@
       <c r="F12" s="3">
         <v>1254</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G12" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
         <v>44165</v>
       </c>
@@ -662,6 +708,9 @@
       </c>
       <c r="F13" s="3">
         <v>4232</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
